--- a/PL-Problem-List/database/csv/00-problem-list.xlsx
+++ b/PL-Problem-List/database/csv/00-problem-list.xlsx
@@ -8,12 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\College Year 1\2110101 COM PROG\COM-PROG\PL-Problem-List\database\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE5AFC6-F96F-4671-B728-5D9200BF8BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503B0BBF-B42F-4A54-90CD-73075ED95EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7CE59BEB-4450-41B6-873A-7F0FF7381052}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="13" activeTab="15" xr2:uid="{7CE59BEB-4450-41B6-873A-7F0FF7381052}"/>
   </bookViews>
   <sheets>
     <sheet name="00-intro" sheetId="1" r:id="rId1"/>
+    <sheet name="01-expr" sheetId="2" r:id="rId2"/>
+    <sheet name="02-str-list" sheetId="3" r:id="rId3"/>
+    <sheet name="03-if" sheetId="4" r:id="rId4"/>
+    <sheet name="04-loop" sheetId="5" r:id="rId5"/>
+    <sheet name="05-list" sheetId="6" r:id="rId6"/>
+    <sheet name="06-func" sheetId="7" r:id="rId7"/>
+    <sheet name="07-str" sheetId="8" r:id="rId8"/>
+    <sheet name="08-dict" sheetId="9" r:id="rId9"/>
+    <sheet name="09-nested" sheetId="10" r:id="rId10"/>
+    <sheet name="10-tsd" sheetId="11" r:id="rId11"/>
+    <sheet name="11-numpy" sheetId="12" r:id="rId12"/>
+    <sheet name="12-class" sheetId="13" r:id="rId13"/>
+    <sheet name="p1-practice" sheetId="14" r:id="rId14"/>
+    <sheet name="p2-practice" sheetId="15" r:id="rId15"/>
+    <sheet name="p3-practice" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="453">
   <si>
     <t>code</t>
   </si>
@@ -42,21 +57,12 @@
     <t>name</t>
   </si>
   <si>
-    <t>00_Hello</t>
-  </si>
-  <si>
     <t>00_Intro_02</t>
   </si>
   <si>
     <t>00_Intro_03</t>
   </si>
   <si>
-    <t>00_Big_Numbers</t>
-  </si>
-  <si>
-    <t>00_Mountain_Valley</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://drive.google.com/file/d/12PYgIQKvRbJJ_rUVcsCQV7d33IWvbHwm/view?usp=drive_link </t>
   </si>
   <si>
@@ -64,6 +70,1335 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1p-xaZlGN2hRZrP3F-QhIzJRjoxmsR0aW/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>01_Expr_01</t>
+  </si>
+  <si>
+    <t>01_Expr_02</t>
+  </si>
+  <si>
+    <t>01_Expr_03</t>
+  </si>
+  <si>
+    <t>01_Expr_04</t>
+  </si>
+  <si>
+    <t>01_Expr_06</t>
+  </si>
+  <si>
+    <t>01_Expr_07</t>
+  </si>
+  <si>
+    <t>01_Expr_08</t>
+  </si>
+  <si>
+    <t>01_Expr_09</t>
+  </si>
+  <si>
+    <t>Stirling Factorial</t>
+  </si>
+  <si>
+    <t>Quadratic Root</t>
+  </si>
+  <si>
+    <t>An Expression</t>
+  </si>
+  <si>
+    <t>Body Surface Area</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Body Surface Area (Function)</t>
+  </si>
+  <si>
+    <t>Cube Root (Function)</t>
+  </si>
+  <si>
+    <t>Duration (Function)</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>Big Numbers</t>
+  </si>
+  <si>
+    <t>Mountain Valley</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1k_Apd7ovMqxXhWhAIRw3j5fCApoWKLUG/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1t3sUo80oVwNc3rVWCmbVgyO69tKfFXiO/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1QjFbvlGZVW_DvMut1K-ZNRXlswoMD_Lt/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/19WB4pcdU4XHMoAIHkf7DW2LBYjxIbLaX/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1RUw-Y2A58UwI3n-oLprnicoxCePYZkbt/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Y5w8Sg8FVCjdQD4DcAN8ckEvMk85V06Y/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1q4SQ2FI5yLt8RGI6L5eDOaKdKPIuf728/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ZgwtK1C-FFU7v2BkYiNgJ_vXWWGgA-EP/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>02_StrList_01</t>
+  </si>
+  <si>
+    <t>02_StrList_02</t>
+  </si>
+  <si>
+    <t>02_StrList_03</t>
+  </si>
+  <si>
+    <t>02_StrList_04</t>
+  </si>
+  <si>
+    <t>02_StrList_05</t>
+  </si>
+  <si>
+    <t>02_StrList_06</t>
+  </si>
+  <si>
+    <t>02_StrList_07</t>
+  </si>
+  <si>
+    <t>02_StrList_08</t>
+  </si>
+  <si>
+    <t>02_StrList_F01</t>
+  </si>
+  <si>
+    <t>02_StrList_F02</t>
+  </si>
+  <si>
+    <t>02_StrList_F06</t>
+  </si>
+  <si>
+    <t>Citizen ID</t>
+  </si>
+  <si>
+    <t>Arabic Numerals</t>
+  </si>
+  <si>
+    <t>US Date</t>
+  </si>
+  <si>
+    <t>N Digits</t>
+  </si>
+  <si>
+    <t>Weekly Sales</t>
+  </si>
+  <si>
+    <t>Add Vector</t>
+  </si>
+  <si>
+    <t>Decryption</t>
+  </si>
+  <si>
+    <t>Decimal to Fraction</t>
+  </si>
+  <si>
+    <t>Citizen ID (Function)</t>
+  </si>
+  <si>
+    <t>Arabic Numerals (Function)</t>
+  </si>
+  <si>
+    <t>Add Vector (Function)</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1rrNBkLxvvoBxibKoOMcDxNEgvrYXO6wv/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/19so7zJiFzwUmRbSAQhQPItIh2FfPMgkk/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1nSQvpgBMvO2dFyuGitJZUQQvNWmx34Ko/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1x9TSTjfAS4zqxaoHenatkl9PoeYzBxYE/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Pz84txEx0ZZel6BfEcsAKOvvpvj9lGHU/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1V5Lcg1ns6KQju1PfXaqrHr9ltsL67PkM/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ZdCtGOkCj1veisQGNKhYomIU7aK2A6lT/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1QfmOmzJvBn66DLlNARVVvvBoOz4RsFt3/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Ukck4JvKpCrjpvuvhG1XeAak0KtS2I8x/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/19JhFGiZLYESRmaPoLqC4-yg7ibpilvdB/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1WYzyRZKzg7OWbNh94YhxtmMeWfrfd6x9/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>03_If_001</t>
+  </si>
+  <si>
+    <t>03_If_002</t>
+  </si>
+  <si>
+    <t>03_If_003</t>
+  </si>
+  <si>
+    <t>03_If_004</t>
+  </si>
+  <si>
+    <t>03_If_01</t>
+  </si>
+  <si>
+    <t>03_If_02</t>
+  </si>
+  <si>
+    <t>03_If_03</t>
+  </si>
+  <si>
+    <t>03_If_04</t>
+  </si>
+  <si>
+    <t>03_If_05</t>
+  </si>
+  <si>
+    <t>03_If_06</t>
+  </si>
+  <si>
+    <t>03_If_07</t>
+  </si>
+  <si>
+    <t>03_If_08</t>
+  </si>
+  <si>
+    <t>03_If_F02</t>
+  </si>
+  <si>
+    <t>03_If_F04</t>
+  </si>
+  <si>
+    <t>03_If_F08</t>
+  </si>
+  <si>
+    <t>03_If_09</t>
+  </si>
+  <si>
+    <t>Median 5 (Flowchart)</t>
+  </si>
+  <si>
+    <t>Next 15 Days (Flowchart)</t>
+  </si>
+  <si>
+    <t>Flowchart 01</t>
+  </si>
+  <si>
+    <t>Grading (Flowchart)</t>
+  </si>
+  <si>
+    <t>Faculty Code</t>
+  </si>
+  <si>
+    <t>Change of Major</t>
+  </si>
+  <si>
+    <t>Gymnastic Score</t>
+  </si>
+  <si>
+    <t>Mobile Number</t>
+  </si>
+  <si>
+    <t>Positive Negative</t>
+  </si>
+  <si>
+    <t>Registered Mail</t>
+  </si>
+  <si>
+    <t>Abbrev Num</t>
+  </si>
+  <si>
+    <t>Day of Year</t>
+  </si>
+  <si>
+    <t>Biorhythm</t>
+  </si>
+  <si>
+    <t>Change of Major (Function)</t>
+  </si>
+  <si>
+    <t>Mobile Number (Function)</t>
+  </si>
+  <si>
+    <t>Day of Year (Function)</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1d5UnfelndV7lFHFTRvd7f7u0Ydoza1Be/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1GrvuJt4-An6P7JUJnEC1XjJx5QD10qkE/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1l07PXjTYDAtB-47kj5TYaND1fjoN4aNf/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/14_Pg6vVEWRJsU7xos2TVaS4kFKLlo6VR/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1gaO4DP7RnEK3iSsQxbygcjpM3MopJDBe/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1yA8yH-Dgw-BvW8xSvtdKQ4XUjsrqT13-/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1p7OQvLjJEf3w8mZ927Vc2ImtmJTkadFw/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1uZSbjfMcACfcXKunBZOUlSJ9o_u8f6dI/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-w1HptsNkzy_eq6wnbFf00X6_61K9N9C/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1xz-1_3ylH51G0jv7eHDlA-QwxgPmTye4/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1mDTCZmWLDeGtuSMLp3g2CcJFYdxafpjL/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Y-dUBpKXE_nL5rr4VhvLC16gTVQh4iNN/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1iNe8zm7YXL6f3v8zNprtORTkdR05Qu8G/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1nQPh-_8_xB0CoRFRaLPMdGSMfGRpBB1v/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1nJf0GqWEV3IHCcDDBfRxQtskxCcAhF00/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1RVKPo_LIe7Rztuj5s4-bM5jrY8qpN_vG/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>04_Loop_001</t>
+  </si>
+  <si>
+    <t>04_Loop_002</t>
+  </si>
+  <si>
+    <t>04_Loop_01</t>
+  </si>
+  <si>
+    <t>04_Loop_02</t>
+  </si>
+  <si>
+    <t>04_Loop_03</t>
+  </si>
+  <si>
+    <t>04_Loop_04</t>
+  </si>
+  <si>
+    <t>04_Loop_05</t>
+  </si>
+  <si>
+    <t>04_Loop_06</t>
+  </si>
+  <si>
+    <t>04_Loop_10</t>
+  </si>
+  <si>
+    <t>04_Loop_11</t>
+  </si>
+  <si>
+    <t>04_Loop_12</t>
+  </si>
+  <si>
+    <t>04_Loop_20</t>
+  </si>
+  <si>
+    <t>04_Loop_F03</t>
+  </si>
+  <si>
+    <t>04_Loop_F06</t>
+  </si>
+  <si>
+    <t>04_Loop_F11</t>
+  </si>
+  <si>
+    <t>Birthday Paradox (Flowchart)</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Bisection Log 10</t>
+  </si>
+  <si>
+    <t>MCQ</t>
+  </si>
+  <si>
+    <t>Parentheses</t>
+  </si>
+  <si>
+    <t>Count Word</t>
+  </si>
+  <si>
+    <t>Print Triangle</t>
+  </si>
+  <si>
+    <t>Bisection Log 10 [2]</t>
+  </si>
+  <si>
+    <t>RLE</t>
+  </si>
+  <si>
+    <t>Zig Zag 1</t>
+  </si>
+  <si>
+    <t>Zig Zag 2</t>
+  </si>
+  <si>
+    <t>MCQ (Function)</t>
+  </si>
+  <si>
+    <t>Print Triangle (Function)</t>
+  </si>
+  <si>
+    <t>RLE (Function)</t>
+  </si>
+  <si>
+    <t>Partition (Flowchart)</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Y9xwtuKQuA9ivybBNBocjLk1bMhSNBod/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1qDCP0adaX9AyDZarqaKNwJpi9H2edl7t/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/17o5HGkHrFkwV8cdCDwyzej8z9jdYetMZ/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1kxFsi7BjNGh9YDjNnzYRKDESZPJ2eX0S/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1045T9kHbNpOkVWQG6D0URf3tx7AYj9Zq/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1a47SEUtNOaMysUlkEDMwawdue-2c9A4A/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/130yj5AwIA6seHeFRHLKiJdOnV5j98Lc_/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1SQyDHlrG-1P4KNhaAMi-8B2NycHO0DzW/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1JOiixtgL3MuR5bhipvUmAfFJpaPNRgSA/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1FJljyXrq98kzqLZK7o4SCWsisbRIa-wn/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1qVnA8Sd9Yx741Ud-dvpnS1oX8wLMuh4F/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1uqvOHaGO9mRZmolJCEQUttyfUHyWmnai/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1FiT8lFWI6pDnFiyKGCfqsoO6aFQHRNsn/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1BZfEUio1oqtH8ogukO0SjbpGXvVK4ZDD/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1TFt7ByWF1iL5RG1q5c2kTaf2cv7yKsWl/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>05_List_11</t>
+  </si>
+  <si>
+    <t>05_List_12</t>
+  </si>
+  <si>
+    <t>05_List_13</t>
+  </si>
+  <si>
+    <t>05_List_14</t>
+  </si>
+  <si>
+    <t>05_List_15</t>
+  </si>
+  <si>
+    <t>05_List_16</t>
+  </si>
+  <si>
+    <t>05_List_21</t>
+  </si>
+  <si>
+    <t>05_List_22</t>
+  </si>
+  <si>
+    <t>05_List_23</t>
+  </si>
+  <si>
+    <t>05_List_31</t>
+  </si>
+  <si>
+    <t>05_List_32</t>
+  </si>
+  <si>
+    <t>05_List_F11</t>
+  </si>
+  <si>
+    <t>05_List_F14</t>
+  </si>
+  <si>
+    <t>05_List_F22</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1TQnGUUCvf7KxZRCT-Q9DLiA3YMbMtkW6/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Uh5SmLFLn4k6F0RzaVNpBY2iHL5t9Jfb/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1n1NhFs45L_Ckod3W0vENhqMMHnYxNO0z/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1RgBxFsXsObus6cQxwf08QHdydE53CuDC/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15BrwiOGvTgNx3yN0tho9532OSx83o4YG/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1PKXPExf_DPAlKwaGvQaZ3vqMd54RpVJ2/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1bbLkJUrzqhrarNl3i0tO6SXG9Bkx2cmt/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/17bzTOp0JyiwwKGzB0KJzAgcDDvdY1g52/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1qCZ0wgD0tv7KWyG36SdAVo_qwJY7flCR/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1al5XKCb9Usd64yo8XfzuD__YfFuVWrxa/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Zr5xve0MFhFOFmckERHE27i3tcze1mQO/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_WW9weWNWDnFKjGxdwiD39pUz6jX-JxT/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15UrBRnCHRKq6BIs2_4niUCqOj32_6v1c/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1xpFZCr1TpqaLzLu_44UAiL62cVE5i7t-/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Missing Digits</t>
+  </si>
+  <si>
+    <t>Nicknames</t>
+  </si>
+  <si>
+    <t>Back and Front</t>
+  </si>
+  <si>
+    <t>Peaks</t>
+  </si>
+  <si>
+    <t>Unique Count</t>
+  </si>
+  <si>
+    <t>Collatz</t>
+  </si>
+  <si>
+    <t>Upgrade</t>
+  </si>
+  <si>
+    <t>Upgrade 2</t>
+  </si>
+  <si>
+    <t>Third Closet</t>
+  </si>
+  <si>
+    <t>Cut and Shuffle</t>
+  </si>
+  <si>
+    <t>Queue Ticket</t>
+  </si>
+  <si>
+    <t>Missing Digits (Function)</t>
+  </si>
+  <si>
+    <t>Peaks (Function)</t>
+  </si>
+  <si>
+    <t>Upgrade 2 (Function)</t>
+  </si>
+  <si>
+    <t>06_Func_11</t>
+  </si>
+  <si>
+    <t>06_Func_12</t>
+  </si>
+  <si>
+    <t>06_Func_21</t>
+  </si>
+  <si>
+    <t>06_Func_22</t>
+  </si>
+  <si>
+    <t>06_Func_23</t>
+  </si>
+  <si>
+    <t>06_Func_31</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18WhSghzPMPQRwFrjsYxGYeNEnU8G9dYB/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18Vp0BbeYQX3qrRoR6hXtGh6f33BnsPyy/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1MF_AAjBOT99rBndyP_Sw9rreKERif-pu/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1hyLbfJSTS2WVGAEz5inzI9nciJeG0-AS/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1s5E2eHburs33GwzIYKRjqBcq_xrRqalX/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1yK3lFBuwrkSOb2MPvWpcM-YZeyNO-9IC/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Binary Adder</t>
+  </si>
+  <si>
+    <t>Next Prime</t>
+  </si>
+  <si>
+    <t>Function Call</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>Four Functions</t>
+  </si>
+  <si>
+    <t>Refactor</t>
+  </si>
+  <si>
+    <t>07_StrFile_11</t>
+  </si>
+  <si>
+    <t>07_StrFile_13</t>
+  </si>
+  <si>
+    <t>07_StrFile_21</t>
+  </si>
+  <si>
+    <t>07_StrFile_22</t>
+  </si>
+  <si>
+    <t>07_StrFile_23</t>
+  </si>
+  <si>
+    <t>07_StrFile_31</t>
+  </si>
+  <si>
+    <t>07_StrFile_32</t>
+  </si>
+  <si>
+    <t>07_StrFile_33</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-NyZ_p8Q_-CGuSvA_ROoFm-VCXIqJ1BI/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1qxebq9IQuZIsL7zibYSrSyVg3UQLRFbk/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1TO8vz37m9d83js4X4iks1d9j4NRwG50a/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1AXiZNOMmZwkKV2cUSMS500qbqEBiFDwQ/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1g8qEXc7_TKpAVXmD9HZSHeysBDMZwiv4/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Wf86Zr6UPfiMRRsVYhBadj8Yu2H5rkZ8/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/160ndl8Mg6mKUMmBVrq4JHX-GL04ajGuw/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18uKdSApjoJiG6TwRkK8qrx5G0X9vym8B/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Plural</t>
+  </si>
+  <si>
+    <t>Camel Case</t>
+  </si>
+  <si>
+    <t>ROT13</t>
+  </si>
+  <si>
+    <t>Anagram</t>
+  </si>
+  <si>
+    <t>File Min-Max-Average</t>
+  </si>
+  <si>
+    <t>DNA</t>
+  </si>
+  <si>
+    <t>Password Strength</t>
+  </si>
+  <si>
+    <t>File Merge</t>
+  </si>
+  <si>
+    <t>08_Dict_11</t>
+  </si>
+  <si>
+    <t>08_Dict_12</t>
+  </si>
+  <si>
+    <t>08_Dict_21</t>
+  </si>
+  <si>
+    <t>08_Dict_22</t>
+  </si>
+  <si>
+    <t>08_Dict_23</t>
+  </si>
+  <si>
+    <t>08_Dict_24</t>
+  </si>
+  <si>
+    <t>08_Dict_31</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1PLGqq5Xqw2fbWuMnsbC-t3AlIUYLRCoT/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1uFj1SbM2w3SCE3Kwqvt1zImzjdl2rSXr/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1eojT5SxU4rf77ntGiALT98hMyYlzkops/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1hxgTFuNQ-XUr5p4xlReWOb0wvgzQSXRF/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1tFaiW-9R_dVhyP72g_SaPjIFcmkQfcXa/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1dsbR8rDuP8NtXuLyovpKJkekjR0dDAse/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1pfFCHg9Yo25WSBDuLaZHa2IGHpXGuupL/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Reverse and Keys</t>
+  </si>
+  <si>
+    <t>Character Count</t>
+  </si>
+  <si>
+    <t>Ice Cream Sales</t>
+  </si>
+  <si>
+    <t>Telephone Dictionary</t>
+  </si>
+  <si>
+    <t>Texting</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>09_Nested_11</t>
+  </si>
+  <si>
+    <t>09_Nested_21</t>
+  </si>
+  <si>
+    <t>09_Nested_22</t>
+  </si>
+  <si>
+    <t>09_Nested_25</t>
+  </si>
+  <si>
+    <t>09_Nested_31</t>
+  </si>
+  <si>
+    <t>09_Nested_32</t>
+  </si>
+  <si>
+    <t>09_Nested_34</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1jwFfjUwAcA8qQh51eLvWtQvZ2UB2GicG/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1vBEe2Hq6z409zK5KqrL2lAehhiDF_WBw/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1CTwQql8pKD4g2zZTikhUhIYJfhhv1WPB/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1QgrpIfq7AeOfxVe8VCWx3PAVxvocIl29/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1SNN6xz6-R4IevIL8uLU9GexVMoLptVhb/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1s9ueFIJNywIOl8C9mEoUoqBwR9Ai275I/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1MGvTR5ZNjPpurG1jetgUOv__NIuNpQOu/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Dedent</t>
+  </si>
+  <si>
+    <t>Factorization</t>
+  </si>
+  <si>
+    <t>Matrix</t>
+  </si>
+  <si>
+    <t>Tiling Puzzle</t>
+  </si>
+  <si>
+    <t>Pythagorean Triple</t>
+  </si>
+  <si>
+    <t>First-Fit Best-Fit</t>
+  </si>
+  <si>
+    <t>Fill in Numbers</t>
+  </si>
+  <si>
+    <t>10_TSD_12</t>
+  </si>
+  <si>
+    <t>10_TSD_13</t>
+  </si>
+  <si>
+    <t>10_TSD_14</t>
+  </si>
+  <si>
+    <t>10_TSD_23</t>
+  </si>
+  <si>
+    <t>10_TSD_24</t>
+  </si>
+  <si>
+    <t>10_TSD_26</t>
+  </si>
+  <si>
+    <t>10_TSD_27</t>
+  </si>
+  <si>
+    <t>10_TSD_33</t>
+  </si>
+  <si>
+    <t>10_TSD_35</t>
+  </si>
+  <si>
+    <t>10_TSD_37</t>
+  </si>
+  <si>
+    <t>10_TSD_38</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1oa1clo95mX24uYK4xUEI-aN3lxRzarnW/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1WZFAdB_0dZ0niGUEbE1tPmyu4GFuwu3w/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1sVM1L8WTU6poZMnUgH2q4Ru3ynjeVz0j/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1IkcX66v3vl9U20yYVMldH4gmyXqXDxpI/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-d45vrVJgudHhNZWBcjlpOO7604YnSpC/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1q6ZCJdDag9yIrOAhdH0dGYcXHTZxTHKG/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/11ysKVt-jorwWKFFLZj7iKNLzwwAtZHUK/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1NzHodyfvlrIU49Ooqf5xPqe2ys6ujKb7/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15menRq_5rcVxJTHJ2-CBhOH0zxlM_o3W/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1mYbLWSQPXZ6fMd695eUBCXmvSU6TGqNN/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/12Ak3Xe47gusCPmwAtTIi9WSXiHrxCNHp/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Union Intersection</t>
+  </si>
+  <si>
+    <t>Winner</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Genre Total Playtime</t>
+  </si>
+  <si>
+    <t>Cartoon</t>
+  </si>
+  <si>
+    <t>Location Analysis</t>
+  </si>
+  <si>
+    <t>Celebrity</t>
+  </si>
+  <si>
+    <t>Polynomial</t>
+  </si>
+  <si>
+    <t>Student Info</t>
+  </si>
+  <si>
+    <t>Department Selection</t>
+  </si>
+  <si>
+    <t>Sky Train</t>
+  </si>
+  <si>
+    <t>11_NumPy_11</t>
+  </si>
+  <si>
+    <t>11_NumPy_12</t>
+  </si>
+  <si>
+    <t>11_NumPy_13</t>
+  </si>
+  <si>
+    <t>11_NumPy_21</t>
+  </si>
+  <si>
+    <t>11_NumPy_22</t>
+  </si>
+  <si>
+    <t>11_NumPy_23</t>
+  </si>
+  <si>
+    <t>11_NumPy_24</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15ONrP_P-c8VHkDHJ4cCI9GIpgTlZmiq3/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1kd8NY1_YIXGCZkje78AvSlWdJuLAW6Nw/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1NNc0lkUAzMbP7FX5Gp7vcLZzG6ODzMz9/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1w5w0mILaevnnSUQsMPd8ELhiGT-w-QF8/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1xqJl_9dvPZ2AvS6nRSVAnRTCY1PbMId7/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1wOeUv8OH-nsNrARr33H-V26TUjAYIuQL/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1u3KY4HE1r1rZpZYxCR8JmIsgPA8-URct/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Indexing and Slicling</t>
+  </si>
+  <si>
+    <t>Scalar and Array</t>
+  </si>
+  <si>
+    <t>Logistic Regression</t>
+  </si>
+  <si>
+    <t>Outer Product</t>
+  </si>
+  <si>
+    <t>Lower than Mean</t>
+  </si>
+  <si>
+    <t>Peak Indexes</t>
+  </si>
+  <si>
+    <t>Slicing and Element-wise Operation</t>
+  </si>
+  <si>
+    <t>12_Class_21</t>
+  </si>
+  <si>
+    <t>12_Class_22</t>
+  </si>
+  <si>
+    <t>12_Class_23</t>
+  </si>
+  <si>
+    <t>12_Class_31</t>
+  </si>
+  <si>
+    <t>12_Class_32</t>
+  </si>
+  <si>
+    <t>12_Class_33</t>
+  </si>
+  <si>
+    <t>12_Class_34</t>
+  </si>
+  <si>
+    <t>12_Class_35</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1c-t7FxeJv0xwvdwCdvixSNVJomTEBM_f/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1dNnh5XDHG2dWd4HDvYyNcam2qJ9aHqqf/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1sBvznMMYRgkH8ogMi8hYEDrj5pDEQcJ9/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1J4JtVByVaxCBeTAMoNvS2-byi9OLLFbC/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/14_CYL0hMMiWPds7FrDK4JLUAMASWH-vB/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1rqOJVzUwJG1c7o_rR6NtV8zpFgc-O79q/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1F6onEA6o4ffyH7_50jcqVq4D8vcVRn5n/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/11l2prjZRO4y18gnNhQcr6QshCzTOvojf/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Complex Number</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>Next Card</t>
+  </si>
+  <si>
+    <t>Point in Rectangle</t>
+  </si>
+  <si>
+    <t>Rectangle Sorted by Area</t>
+  </si>
+  <si>
+    <t>Piggy Bank 1</t>
+  </si>
+  <si>
+    <t>Piggy Bank 2</t>
+  </si>
+  <si>
+    <t>Roman Numberal</t>
+  </si>
+  <si>
+    <t>P1_01_Older</t>
+  </si>
+  <si>
+    <t>P1_02_RLE</t>
+  </si>
+  <si>
+    <t>P1_03_RSP</t>
+  </si>
+  <si>
+    <t>P1_04_Bowling</t>
+  </si>
+  <si>
+    <t>P1_05_Golf</t>
+  </si>
+  <si>
+    <t>P1_06_RotateString</t>
+  </si>
+  <si>
+    <t>P1_Flowchart_01</t>
+  </si>
+  <si>
+    <t>P1_Flowchart_02</t>
+  </si>
+  <si>
+    <t>P1_Flowchart_03</t>
+  </si>
+  <si>
+    <t>P1_Flowchart_04</t>
+  </si>
+  <si>
+    <t>P1_Flowchart_05</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1YN9OMxSfGfOwWz8Qk8Hn3UuJl-xrfQ6D/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1xbPthJmwu74ThTo_pm99cJfS2WJHIkOE/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/12H-09gh_qRohC_q6lgplcSfxFSmCxuY0/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18Cp6jlm1gYagaPjU0R_lsE9imFCTqFoK/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1wTfOJEajV7A6x-R_k33MWWbuWgFoDuwP/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Ms1AhMxEaiGeOR3I9wMfwIeC27iwGTCP/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1LTZjlET9UDzyOCV-XCcw5ukS03xLicy8/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/10ygmFflkrf_beWnxtfczsVP6onvTbVPt/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1h9FVdIoXd1Sew3hEIA2HOZn4YEAuH7Zz/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ewNjgseKYUbSUJieJcFZ9nQlUid5RIi7/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1T8XUIE2KrZdtBEJe03U3azGay_2ETvbN/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Older</t>
+  </si>
+  <si>
+    <t>Rock Scissor Paper</t>
+  </si>
+  <si>
+    <t>Bowling</t>
+  </si>
+  <si>
+    <t>Golf</t>
+  </si>
+  <si>
+    <t>Rotate String</t>
+  </si>
+  <si>
+    <t>Flowchart 02</t>
+  </si>
+  <si>
+    <t>Flowchart 03</t>
+  </si>
+  <si>
+    <t>Flowchart 04</t>
+  </si>
+  <si>
+    <t>Flowchart 05</t>
+  </si>
+  <si>
+    <t>P2_01_Func1</t>
+  </si>
+  <si>
+    <t>P2_02_Card</t>
+  </si>
+  <si>
+    <t>P2_03_Func2</t>
+  </si>
+  <si>
+    <t>P2_04_Delivery</t>
+  </si>
+  <si>
+    <t>P2_05_Anagram2</t>
+  </si>
+  <si>
+    <t>P2_06_Morse</t>
+  </si>
+  <si>
+    <t>P2_07_Snooker</t>
+  </si>
+  <si>
+    <t>P2_08_Thai</t>
+  </si>
+  <si>
+    <t>P2_09_Vitamin</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1fysZG6sj3HcgmMIxE94B25Qk0fBw_b2x/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1EwKBa__q36p2uYZZe46kka7_vqaftXQJ/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ZjELR1M5hd5JoqEdfDRaEHw24N2DReOd/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ihF9HlO3j0o5VpNef82U5qOwOZMpUZh7/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-S7tlVs0vmhizKj0wtPghv9QV4IV3-ke/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1GWIgToXTk8FvUjOCKFfwHigVzp-mQqGN/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1hMQY9K9bDfz-4PmpKMxzujTSFegdxMSN/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1iQh2TR-Gg74CZQyxdJxuCh-4yku5Fx1p/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Ii96AFOhIT41F2HvPDy6QUoS0mqEmHNs/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Odd Odd Functions</t>
+  </si>
+  <si>
+    <t>Potpourri Functions</t>
+  </si>
+  <si>
+    <t>Delivery</t>
+  </si>
+  <si>
+    <t>Anagram 2</t>
+  </si>
+  <si>
+    <t>Morse Code</t>
+  </si>
+  <si>
+    <t>Snooker</t>
+  </si>
+  <si>
+    <t>Thai Numeral</t>
+  </si>
+  <si>
+    <t>Vitamin</t>
+  </si>
+  <si>
+    <t>P3_01_Gray</t>
+  </si>
+  <si>
+    <t>P3_02_Checker</t>
+  </si>
+  <si>
+    <t>P3_03_Text</t>
+  </si>
+  <si>
+    <t>P3_04_Ascii</t>
+  </si>
+  <si>
+    <t>P3_05_Spiral</t>
+  </si>
+  <si>
+    <t>P3_06_MovieStar</t>
+  </si>
+  <si>
+    <t>P3_07_Search</t>
+  </si>
+  <si>
+    <t>P3_08_Bidding</t>
+  </si>
+  <si>
+    <t>P3_09_BNK48</t>
+  </si>
+  <si>
+    <t>P3_10_Numpy1</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1wtcfvhjixQCCNLIbgYGeM6CuGrg597gz/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1yxHWqPdlpDYGA5fi5GwBWQIgUZU1_xvg/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1QGJZXr-JWt5Q5TsxwuGSbMgivmjtX_z_/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/19OKv5YMBBL2tA_5PuhJFt6fX69pJdM4d/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1R_KGdDjiZfEVLHv9dntXGvGLEBCq6aeb/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1DK_DCEgW6pIdlKQ9rGdqh4aLln2Cs7Lr/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1QUqzKH_17u-sY_sTCGyMRoe2W_uh2dC9/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ERinoNzOYUVL2pBiceM8YmRaSHNoq4iW/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1bTrlKl6DU7X-fDITSiY6FWAyg8p-iCY0/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/11DYcIuGS3OW7Lmzh3iQ9qowKcyepHfQW/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Gray Codes</t>
+  </si>
+  <si>
+    <t>Giant Checker</t>
+  </si>
+  <si>
+    <t>Text Formatting</t>
+  </si>
+  <si>
+    <t>ASCII Text</t>
+  </si>
+  <si>
+    <t>Spiral Square</t>
+  </si>
+  <si>
+    <t>Movie Stars</t>
+  </si>
+  <si>
+    <t>Search Engine</t>
+  </si>
+  <si>
+    <t>Bidding</t>
+  </si>
+  <si>
+    <t>BNK48</t>
+  </si>
+  <si>
+    <t>NumPy Functions</t>
   </si>
 </sst>
 </file>
@@ -71,9 +1406,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +1434,13 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -130,12 +1472,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -144,7 +1483,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -464,30 +1812,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859C552E-8C7C-4D9C-913C-C6892FADC7D3}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="48" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" style="3" customWidth="1"/>
     <col min="3" max="3" width="27.77734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="1" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -495,41 +1843,41 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5">
+        <v>26</v>
+      </c>
+      <c r="D2" s="4">
         <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="5">
+        <v>27</v>
+      </c>
+      <c r="D3" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5">
+        <v>28</v>
+      </c>
+      <c r="D4" s="4">
         <v>1</v>
       </c>
     </row>
@@ -542,4 +1890,2784 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D1A613-FD95-4468-80EA-5E0FC104E03F}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="48" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D8" s="4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{C0155389-F8FE-45FC-A9E1-ECF12EAE52BC}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{FF05693A-ABB6-42F4-80E5-B47FFFB5A112}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{1E6A8ED5-839D-4009-A8F8-4B3BF436A2D1}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{13F6D7F0-EB1C-4056-B83E-19066F74567F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A9ED58-3576-4E48-AAF6-6F9212C91160}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="48" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D9" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D12" s="4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{1E30FB88-5F4A-4156-BF86-10D8DEC30C8D}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{4A372AB6-75FC-48FD-9AC9-FF4C3A6C7707}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{C6E0BB6D-252D-45DA-9911-63F2E770189A}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{EF902E77-B453-48A6-B5BE-A5EE23C92CCA}"/>
+    <hyperlink ref="B9" r:id="rId5" xr:uid="{477E4C87-1549-46EC-A660-5F1B3397E566}"/>
+    <hyperlink ref="B10" r:id="rId6" xr:uid="{8B0E9143-B19F-4CCF-BFC4-FDA94CB54CB7}"/>
+    <hyperlink ref="B11" r:id="rId7" xr:uid="{089D0540-9547-407D-B170-5FD4DCBC39CB}"/>
+    <hyperlink ref="B12" r:id="rId8" xr:uid="{7163FEBF-8E8A-45A8-B467-029D5774A0EB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A8BC8A-BB51-47B4-A4CC-479B9C2FB6EC}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="48" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{47525290-47A7-49FE-903C-E2ADCB7D4C27}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{997B966C-B421-4528-9BBC-E501B422872B}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{FEF94596-BEE2-4FBD-A903-3C48399C8232}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{0D9E96D8-B90E-43BF-87CF-3A7662E0C0E7}"/>
+    <hyperlink ref="B8" r:id="rId5" xr:uid="{E6B0C736-C2C1-4CEF-BDAF-804EB65FF0A0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1B2FDF-79F9-4245-A734-1F832C5EA3E0}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="48" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D8" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D9" s="4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{7745CEC7-2C2D-442D-9A04-55FB7307D252}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{F08288A1-8861-4466-BE69-637E89A68267}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{380C84EB-C015-46C4-A423-1ADD6BEE324E}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{18B298E7-05E6-434E-953B-105E2C1EACDF}"/>
+    <hyperlink ref="B9" r:id="rId5" xr:uid="{2481F7B6-6132-44BF-A82F-7A62B015F5F3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCB1647-F952-419E-BCF2-A661F7736F59}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="48" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D9" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D12" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445A4777-8886-476A-B4D3-8FFA80D9765E}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="48" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFF1BA2-EC02-4A6B-A523-8D6726D92B5D}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="48" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D3" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D9" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{6FF66029-9491-46C9-8442-7EB04EC567CF}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{416A9745-C43F-4C72-9339-26FB91406A69}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{B202907E-EC65-4B29-9F02-1BF0B04EAE07}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{BEC4C99B-3FB3-491E-A3A7-2DFD574118C9}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{DE9F0229-37D7-41BD-A4E4-6AE23DC18C9F}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{815CACC6-1CC3-4A63-9B45-6FC844006550}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{A47E9459-F612-4E33-B21F-BD431C66B0D9}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{617B5D63-1A4E-4B9A-9C3E-810D9101E733}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{15902DA2-F8C9-4B9C-B6CA-DAAECF077135}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{E9C0E3F6-A387-403C-A9FF-48A413850B1C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D550803-74D4-40DA-8E50-1948B5304771}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="48" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{DD2EAFCC-52EE-41F6-AE35-7BB72134C149}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{98ACE391-FAA4-4EF8-89E3-A3838E65A114}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{45139A05-E02E-470C-A217-A7575E5E759F}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{310ABC8D-5C5D-4457-ADAC-ECEDA8BA07F6}"/>
+    <hyperlink ref="B9" r:id="rId5" xr:uid="{D91FB082-9F8C-4C58-B4A2-B5E6537EA62B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E3ECF1-4187-4A0E-87F5-511A8C53CF19}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="48" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{5C642545-3F01-40BF-8204-C76A79DF15B5}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{6CA42EAF-5EDC-4E1C-9BEA-F123660CA0C5}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{A4FBE0F6-2E3D-4F00-886C-00B391EFCEBB}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{711C0A4B-EA8F-4CCA-B275-82645B3AF909}"/>
+    <hyperlink ref="B9" r:id="rId5" xr:uid="{B803E270-7571-4B1A-B562-FC4F30B731E4}"/>
+    <hyperlink ref="B10" r:id="rId6" xr:uid="{51EBD276-9635-492E-B285-4ACFE95244F3}"/>
+    <hyperlink ref="B11" r:id="rId7" xr:uid="{1803ADB3-4664-4805-AEA8-E2CDE0E5067C}"/>
+    <hyperlink ref="B12" r:id="rId8" xr:uid="{C56290D1-5FA5-4F4E-9B53-6930C4768F61}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BCF97F6-F168-4EC3-83DC-1A828EF65C3C}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="48" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{C075CB2A-96A1-49C1-9F24-A3605A638385}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{8C17587E-C97F-42B5-9C8B-16BF2F89063B}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{3F5DEE40-588C-445F-B1CB-5A0206F859ED}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{22104C8C-8979-4CE7-87CB-1EBED83F7A73}"/>
+    <hyperlink ref="B9" r:id="rId5" xr:uid="{334EC5F9-4695-4DF7-9410-98D0CD5105D2}"/>
+    <hyperlink ref="B10" r:id="rId6" xr:uid="{1A7B0F0D-B61B-4841-9F96-6A3E65AED032}"/>
+    <hyperlink ref="B11" r:id="rId7" xr:uid="{8D2A3190-C141-4EFE-AB9B-F2C77380658E}"/>
+    <hyperlink ref="B12" r:id="rId8" xr:uid="{8A7CA411-65F0-442C-90DA-ED6289AFF7DA}"/>
+    <hyperlink ref="B14" r:id="rId9" xr:uid="{A05671E4-7415-4051-8C8F-CDB1C7F31B26}"/>
+    <hyperlink ref="B15" r:id="rId10" xr:uid="{C0495C05-A5F1-44B0-ABF6-2E77B824B168}"/>
+    <hyperlink ref="B13" r:id="rId11" xr:uid="{713F0611-BBC5-43B8-B0B3-09E6E8E88000}"/>
+    <hyperlink ref="B16" r:id="rId12" xr:uid="{8587DD50-238B-4FB0-82DA-7FF904BF0F1C}"/>
+    <hyperlink ref="B17" r:id="rId13" xr:uid="{951DDB14-F97D-498D-99E9-C6D58B567295}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42717B67-C4D9-4E97-ABEC-88968075F4F1}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="48" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{B3F863D0-A1CA-4E4B-9558-A6DA63A25926}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{D92F7DDA-D993-48F0-BDC9-573BC3B36ECF}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{17D0F0E3-A5C3-46BE-B2D8-48A2D2A744C2}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{8A0559BE-F4F7-4152-8B35-9F29EAD1F881}"/>
+    <hyperlink ref="B9" r:id="rId5" xr:uid="{974433DD-A450-4658-AFC2-C6397B2EAAFC}"/>
+    <hyperlink ref="B10" r:id="rId6" xr:uid="{6DA0F07F-E41C-4CB4-8369-8B3853A54770}"/>
+    <hyperlink ref="B11" r:id="rId7" xr:uid="{7CCF8F7E-12FC-4CC9-B548-56764CD46633}"/>
+    <hyperlink ref="B12" r:id="rId8" xr:uid="{532F1E9F-01B6-4419-9CFF-E2515755BBE4}"/>
+    <hyperlink ref="B13" r:id="rId9" xr:uid="{703404DC-A8D4-4172-AC06-4862D6334AAD}"/>
+    <hyperlink ref="B14" r:id="rId10" xr:uid="{0BE6F0BF-A7D9-41B7-B706-C4B4DE9C6BA2}"/>
+    <hyperlink ref="B15" r:id="rId11" xr:uid="{C466EC7C-DF6D-4988-9711-D49E1AF9A346}"/>
+    <hyperlink ref="B16" r:id="rId12" xr:uid="{9C7AEAEB-9589-43AA-8B43-64F4A40FF3A0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA7F09F-2F4C-4586-AECD-DCF1B9859BC4}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="48" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B11" r:id="rId1" xr:uid="{12050205-F3D6-4684-A348-8F805DE8C2AE}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{7FB6EA87-25E5-42A3-889C-A7575275A649}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{2F0A1563-3F20-4EB6-AFC2-752C9449FB04}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{D9A8178F-3CDE-4647-A442-B6A672742CA4}"/>
+    <hyperlink ref="B8" r:id="rId5" xr:uid="{19FF0ED6-54DF-433F-ACB4-AE0C0D9016BC}"/>
+    <hyperlink ref="B9" r:id="rId6" xr:uid="{2054729B-9958-46E0-8C5E-E1DF834D3A2B}"/>
+    <hyperlink ref="B10" r:id="rId7" xr:uid="{0288AB74-EDF3-4B58-AAFF-DAC8C623742B}"/>
+    <hyperlink ref="B12" r:id="rId8" xr:uid="{08D4FA4B-B13B-468C-AAB2-4CD05C2DBDDF}"/>
+    <hyperlink ref="B13" r:id="rId9" xr:uid="{B700119E-43A7-4A09-A764-FDAF0796EB64}"/>
+    <hyperlink ref="B14" r:id="rId10" xr:uid="{59AA5569-0B84-48AF-AFC9-79C92499BB6D}"/>
+    <hyperlink ref="B15" r:id="rId11" xr:uid="{A3101231-5937-470E-8B93-C38EAED39763}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13850DAF-7337-4327-A35B-CFE1B2B08FF8}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="48" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{D525A523-1457-48B0-A750-D859DAE014EA}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{81D87C61-A55D-47DD-B714-0C4464401F3C}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{55425F59-2E29-4B5F-B7BE-D857116F2267}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78118E3-38D0-4D12-B5E3-C44713C0FE10}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="48" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D8" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D9" s="4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{F36B5A01-671E-4D19-8897-99FEEB280433}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{DF9F8EE6-223E-413C-9741-B3635F53DD6F}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{03F46226-26DE-46FE-AEBA-1BB6E0BDFD46}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{6E34CDE5-0082-438D-9A8C-5447966A3971}"/>
+    <hyperlink ref="B9" r:id="rId5" xr:uid="{FA7683D6-8B9E-4EEE-A4F9-9CCDC4574AB9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D193C03-AED1-4C72-98DE-ADE2B2391D8A}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="48" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D8" s="4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{23E785F3-403E-4EFF-AADE-6F2F0E92721E}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{AB3CFCA6-5F52-47B4-B684-E2B68675DD09}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{6C5648A6-CD07-445A-AB08-36D6683DDC40}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{4601E550-09AC-49E7-9793-BD2A77D485E7}"/>
+    <hyperlink ref="B8" r:id="rId5" xr:uid="{8D8676C8-1413-4DC0-87E7-41C6E23A41D6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+</worksheet>
 </file>